--- a/Scheda_Ipertrofia_Corsa_Excel.xlsx
+++ b/Scheda_Ipertrofia_Corsa_Excel.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1 - Lower A" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,45 +15,20 @@
     <sheet name="Peso Storico" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
-  </numFmts>
-  <fonts count="6">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
-      <charset val="1"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -67,7 +42,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,53 +55,21 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -199,41 +142,41 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -241,1157 +184,1241 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
+                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.53125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
-  <cols>
-    <col width="23.38" customWidth="1" style="2" min="1" max="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="3">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Esercizio</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Serie</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Ripetizioni</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>RPE</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Recupero (sec)</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Note/Commenti</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Carico (kg)</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="3">
-      <c r="A2" s="2" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Leg Press</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>8-10</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" t="n">
         <v>90</v>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Progressione: aumentare reps fino a 10, poi carico</t>
         </is>
       </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Bulgarian Split Squat (DB)</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>8-10/lato</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>8.5</t>
         </is>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" t="n">
         <v>90</v>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Stabilità e controllo; non sacrificare forma</t>
         </is>
       </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Seated Leg Curl</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>10-15</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" t="n">
         <v>75</v>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Controllo eccentrico, massimo squeeze</t>
         </is>
       </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="3">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Standing Calf Raise</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>12-20</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" t="n">
         <v>60</v>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Cedimento tecnico, pompaggio</t>
         </is>
       </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="3">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Plank + Side Plank</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>40'' + 40''/lato</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" t="n">
         <v>45</v>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Core antirotazionale, qualità &gt; durata</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr"/>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.53125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
-  <cols>
-    <col width="27.08" customWidth="1" style="2" min="1" max="1"/>
-    <col width="20.45" customWidth="1" style="2" min="5" max="5"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="3">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Esercizio</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Serie</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Ripetizioni</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>RPE</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Recupero (sec)</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Note/Commenti</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Carico (kg)</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="3">
-      <c r="A2" s="2" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Bench Press (Barbell)</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>5-8</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="n">
+      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" t="n">
         <v>120</v>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Progressione scalino: 5→8 reps poi aumento carico</t>
         </is>
       </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Lat Pulldown (Neutro)</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" t="n">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>8-12</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
+      <c r="D3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" t="n">
         <v>90</v>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Stretch completo, controllo</t>
         </is>
       </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Incline Chest Fly (Cable/DB)</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>12-15</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="n">
+      <c r="D4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E4" t="n">
         <v>60</v>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Stretch + tempo sotto tensione</t>
         </is>
       </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="3">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Chest Supported Row (Machine)</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>10-12</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n">
+      <c r="D5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
         <v>75</v>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Enfasi sulla contrazione scapolare</t>
         </is>
       </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="3">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Skull Crusher</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>10-12</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="D6" t="n">
+        <v>9</v>
+      </c>
+      <c r="E6" t="n">
         <v>60</v>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Controllo discesa, stretch tricipiti</t>
         </is>
       </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="3">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Preacher Curl (EZ)</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>10-12</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="n">
+      <c r="D7" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
         <v>60</v>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Full ROM, no cheating</t>
         </is>
       </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="3">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Cable Lateral Raise</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>15-20</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="n">
+      <c r="D8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E8" t="n">
         <v>45</v>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Ultimo set opzionale: drop set</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr"/>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.53125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
-  <cols>
-    <col width="28.6" customWidth="1" style="2" min="1" max="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="3">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Esercizio</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Serie</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Ripetizioni</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>RPE</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Recupero (sec)</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Note/Commenti</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Carico (kg)</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="3">
-      <c r="A2" s="2" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Hip Thrust (barbell)</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>8-10</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" t="n">
         <v>90</v>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Isometria in cima 1 sec, attivazione glutei</t>
         </is>
       </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Leg Curl (lying/seated)</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" t="n">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>10-15</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" t="n">
         <v>75</v>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Eccentrica controllata</t>
         </is>
       </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Leg Extension</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>15-20</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>9.5</t>
         </is>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" t="n">
         <v>60</v>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Ultimo set: stripping opzionale (-20% x2)</t>
         </is>
       </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="3">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Reverse Hyper / Hyperextension</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>15-20</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" t="n">
         <v>60</v>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Controllo lombare, pompaggio</t>
         </is>
       </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="3">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Standing Calf Raise</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>12-15</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" t="n">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="3">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Deadbug + Hollow Hold</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>30 sec</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" t="n">
         <v>45</v>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Controllo del core profondo</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr"/>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.53125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
-  <cols>
-    <col width="18.92" customWidth="1" style="2" min="1" max="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="3">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Esercizio</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Serie</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Ripetizioni</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>RPE</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Recupero (sec)</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Note/Commenti</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Carico (kg)</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="3">
-      <c r="A2" s="2" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Pull-Up (libere o zavorra)</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>5-8</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="n">
+      <c r="D2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E2" t="n">
         <v>120</v>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Progressione a scalino con zavorra</t>
         </is>
       </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Incline DB Press</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>8-10</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
+      <c r="D3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" t="n">
         <v>90</v>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Eccentrica 2 sec, stabile</t>
         </is>
       </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Seated Cable Row</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>10-12</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="n">
+      <c r="D4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E4" t="n">
         <v>75</v>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Stretch e chiusura attiva</t>
         </is>
       </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="3">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Dumbbell Chest Fly</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>12-15</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n">
+      <c r="D5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
         <v>60</v>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Stretch massimo, senza rimbalzo</t>
         </is>
       </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="3">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Hammer Curl</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>10-12</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="D6" t="n">
+        <v>9</v>
+      </c>
+      <c r="E6" t="n">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="3">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>French Press (EZ)</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>10-12</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="n">
+      <c r="D7" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
         <v>60</v>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Stretch tricipite, no gomiti larghi</t>
         </is>
       </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="3">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>DB Lateral Raise</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>15-20</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="n">
+      <c r="D8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E8" t="n">
         <v>45</v>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Ultimo set opzionale: drop set</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr"/>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.53125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="3">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Settimana</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Tipo</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Dettagli</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="3">
-      <c r="A2" s="2" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1-2</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>HIIT Intervalli</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>6x (1’ forte + 2’ lento) – Tot. 25-30 min</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Mantieni postura attiva, non correre a stomaco vuoto</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="3">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>3-4</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Tempo Run</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>20 min corsa sostenuta + 5 min defaticamento</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Ideale in scarpe da corsa stabili, corsa costante</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1410,27 +1437,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Esercizio</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Peso</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Ripetizioni</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Sforzo</t>
         </is>
